--- a/biology/Botanique/Raphanus_raphanistrum/Raphanus_raphanistrum.xlsx
+++ b/biology/Botanique/Raphanus_raphanistrum/Raphanus_raphanistrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raphanus raphanistrum
 La Ravenelle, Radis ravenelle ou Radis sauvage  (Raphanus raphanistrum), est une espèce de plantes annuelles communes de la famille des Brassicaceae.
@@ -514,11 +526,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le radis sauvage pousse comme une annuelle ou une bisannuelle avec d'attrayantes fleurs à quatre pétales de 15–20 mm de diamètre et de couleur variable, généralement du blanc au violet en passant par l'orange et le jaune, souvent avec un ombrage de couleur sur un seul pétale.
 Il est résistant au gel qui ne fait qu'interrompre temporairement la floraison.
-La floraison a lieu, dans l'hémisphère nord, de mai à septembre[1].
+La floraison a lieu, dans l'hémisphère nord, de mai à septembre.
 Il dispose d'un unique pivot qui est similaire à celui du radis cultivé mais moins large.
 La plante adulte mesure 30 à 60 cm.
 </t>
@@ -549,10 +563,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une source importante de pollen et de nectar pour les pollinisateurs, en particulier les abeilles au début du printemps.
-Différentes parties de la plante sont comestibles, les feuilles et les jeunes fruits peuvent être mangés crus, cuits ou en lacto-fermentation[2].
+Différentes parties de la plante sont comestibles, les feuilles et les jeunes fruits peuvent être mangés crus, cuits ou en lacto-fermentation.
 </t>
         </is>
       </c>
@@ -581,10 +597,12 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante peut être confondue avec la moutarde des champs. On peut les distinguer en comparant les pétales : chez la ravenelle, les nervures au niveau des pétales ont un aspect bleu-violet, ce qui n'est pas le cas chez la moutarde des champs.
-Les feuilles pennatiséquées ressemblent à celles du Rapistre rugueux[3]. Elles se distinguent par des paires de divisions décalées et un large lobe terminal[4].
+Les feuilles pennatiséquées ressemblent à celles du Rapistre rugueux. Elles se distinguent par des paires de divisions décalées et un large lobe terminal.
 </t>
         </is>
       </c>
@@ -613,9 +631,11 @@
           <t>Interférence avec les grandes cultures</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ravenelles sont jugées indésirables dans les surfaces cultivées, en particulier pour la production de semences[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ravenelles sont jugées indésirables dans les surfaces cultivées, en particulier pour la production de semences.
 </t>
         </is>
       </c>
